--- a/COMP3217CW2Input.xlsx
+++ b/COMP3217CW2Input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sotonac-my.sharepoint.com/personal/hmrp1r17_soton_ac_uk/Documents/AA EEE Part 3/COMP3217 CW - 2/COMP3217CW2-20202021/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sotonac-my.sharepoint.com/personal/hmrp1r17_soton_ac_uk/Documents/AA EEE Part 3/COMP3217 CW - 2/comp3217-cw2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{C94E39CD-C907-4E62-82CA-222FFF24BAED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{A7BD672E-888F-43E9-BAEE-E9A632472F8E}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{C94E39CD-C907-4E62-82CA-222FFF24BAED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{1E886180-F17A-47E1-9709-37216F5F3833}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{DE4D9E89-ED3E-9F4F-B454-34A6DA40E3CF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{DE4D9E89-ED3E-9F4F-B454-34A6DA40E3CF}"/>
   </bookViews>
   <sheets>
     <sheet name="User &amp; Task ID" sheetId="1" r:id="rId1"/>
@@ -335,57 +335,25 @@
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Abnormal</a:t>
+              <a:rPr lang="en-GB" sz="1400" b="0"/>
+              <a:t>Normal</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1400" b="0" baseline="0"/>
+              <a:t> Pricing vs Abnormal Pricing</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB" sz="1400" b="0"/>
           </a:p>
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -394,18 +362,185 @@
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>AbnormalGuidelinePricing!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
+            <c:v>Abnormal Pricing</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>AbnormalGuidelinePricing!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>Unit Cost</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>AbnormalGuidelinePricing!$B$2:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>4.2465223767728215</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6400277961434484</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4805026391870144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2454609947025612</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1629159918690348</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5976674954444445</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.9053559544181216</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0783402462878993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.3747974263961735</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.9446991235837698</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.4381000827159394</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.909231366353989</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.2006667261940969</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.4821418941480484</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.41080155790966</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.1491709685010445</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.883768700097348</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.3292632076075481</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.40001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.5834976200853035</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.5589223785757591</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.2553547974771586</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.5684806127528805</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.441475566897596</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-06BD-4C5F-89FE-81E0F45EB0CA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Normal Pricing</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -433,7 +568,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>AbnormalGuidelinePricing!$A$2:$A$25</c:f>
+              <c:f>NormalGuidelinePricing!$A$2:$A$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -514,7 +649,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AbnormalGuidelinePricing!$B$2:$B$25</c:f>
+              <c:f>NormalGuidelinePricing!$B$2:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -573,7 +708,7 @@
                   <c:v>6.3292632076075481</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.40001</c:v>
+                  <c:v>6.4695111523786952</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>5.5834976200853035</c:v>
@@ -596,7 +731,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E528-40C9-8374-964B4E9886EB}"/>
+              <c16:uniqueId val="{00000002-06BD-4C5F-89FE-81E0F45EB0CA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -608,11 +743,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="917782575"/>
-        <c:axId val="1276539343"/>
+        <c:axId val="1282915375"/>
+        <c:axId val="1277440559"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="917782575"/>
+        <c:axId val="1282915375"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -632,6 +767,24 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" b="0"/>
+                  <a:t>Hour</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -669,12 +822,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1276539343"/>
+        <c:crossAx val="1277440559"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1276539343"/>
+        <c:axId val="1277440559"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -694,6 +847,24 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" b="0"/>
+                  <a:t>Unit Cost</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -731,44 +902,20 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="917782575"/>
+        <c:crossAx val="1282915375"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -1296,563 +1443,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2746,7 +2337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9D33648-2EBE-814D-9D1C-C2A4EAB0BD48}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8:K24"/>
     </sheetView>
   </sheetViews>
@@ -3856,8 +3447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39234B7D-2840-4C4E-82FD-0C3AEEFA082F}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
